--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pitak\Desktop\BasicAPICourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pitak\Desktop\Udemy-BasicAPICourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCC8428-72FF-40D6-B39E-84751FC877F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C92D6-F95A-41DF-86D5-5CCFDD11360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Main Topic</t>
   </si>
@@ -36,15 +36,9 @@
     <t>1 Introduction To API</t>
   </si>
   <si>
-    <t>2.3 Working with JSON responses</t>
-  </si>
-  <si>
     <t>2.4 Error handling and status codes</t>
   </si>
   <si>
-    <t>3.4 POST endpoints</t>
-  </si>
-  <si>
     <t>2 Making Request to Rest API</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>2.2 Making Request with Python</t>
   </si>
   <si>
-    <t>2.2 Making Request with Python 2</t>
-  </si>
-  <si>
     <t>4 Security for Rest API</t>
   </si>
   <si>
@@ -66,18 +57,9 @@
     <t>4.2 Understanding Oauth</t>
   </si>
   <si>
-    <t>* Post request to botnoi voice</t>
-  </si>
-  <si>
     <t>GET reqeust and POST request</t>
   </si>
   <si>
-    <t>* GET request</t>
-  </si>
-  <si>
-    <t>** Retrieve json voice from botnoi voice</t>
-  </si>
-  <si>
     <t>** Handling status code</t>
   </si>
   <si>
@@ -93,12 +75,6 @@
     <t>3.2 GET endpoints</t>
   </si>
   <si>
-    <t>3.3 GET endpoints with parameters</t>
-  </si>
-  <si>
-    <t>3.5 PUT and DELETE endpoints</t>
-  </si>
-  <si>
     <t>3.6 Upload files to endpoints</t>
   </si>
   <si>
@@ -114,9 +90,6 @@
     <t>5.6 Deploying as a container on Azure Container App</t>
   </si>
   <si>
-    <t>5.8 Deploying as a VM on Azure Virtual Machine</t>
-  </si>
-  <si>
     <t>Function, Scalable Container, VM</t>
   </si>
   <si>
@@ -138,39 +111,9 @@
     <t>** Using Azure Container App</t>
   </si>
   <si>
-    <t>5.7 Deploying as a VM on Google Compute Engine</t>
-  </si>
-  <si>
-    <t>** Using Google Compute Engine</t>
-  </si>
-  <si>
-    <t>** Using Azure Virtual Machine</t>
-  </si>
-  <si>
-    <t>5.2 Types of deploying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1 Introduction to cloud platforms </t>
-  </si>
-  <si>
-    <t>Google and Azure</t>
-  </si>
-  <si>
     <t>What is Docker, Container image, Container instance</t>
   </si>
   <si>
-    <t>* Creating simple GET endpoints</t>
-  </si>
-  <si>
-    <t>* Creating simple GET endpoints that accept parameters</t>
-  </si>
-  <si>
-    <t>* Creating simple POST endpoints that accept body</t>
-  </si>
-  <si>
-    <t>* Creating simple PUT and DELETE endpoints</t>
-  </si>
-  <si>
     <t>* Creating POST endpoints that accept file upload</t>
   </si>
   <si>
@@ -205,6 +148,36 @@
   </si>
   <si>
     <t>RapidAPI, Instagram</t>
+  </si>
+  <si>
+    <t>2.3 Making Request with Python 2</t>
+  </si>
+  <si>
+    <t>** Text Translation</t>
+  </si>
+  <si>
+    <t>** Botnoi voice</t>
+  </si>
+  <si>
+    <t>* Creating root endpoints and request using Postman</t>
+  </si>
+  <si>
+    <t>** Creating GET endpoints that accept parameters</t>
+  </si>
+  <si>
+    <t>3.3 POST endpoints</t>
+  </si>
+  <si>
+    <t>3.4 PUT and DELETE endpoints</t>
+  </si>
+  <si>
+    <t>** Creating simple POST endpoints that accept body</t>
+  </si>
+  <si>
+    <t>** Creating simple PUT and DELETE endpoints</t>
+  </si>
+  <si>
+    <t>5.1 Types of deploying</t>
   </si>
 </sst>
 </file>
@@ -466,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -518,35 +491,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,10 +835,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.5"/>
@@ -880,268 +861,250 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="14" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="1" t="s">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="24"/>
       <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>51</v>
       </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>52</v>
+      <c r="A20" s="30"/>
+      <c r="B20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="17" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="A25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
@@ -1150,31 +1113,73 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" s="2" customFormat="1"/>
-    <row r="34" s="2" customFormat="1"/>
-    <row r="35" s="2" customFormat="1"/>
-    <row r="36" s="2" customFormat="1"/>
-    <row r="37" s="2" customFormat="1"/>
-    <row r="38" s="2" customFormat="1"/>
-    <row r="39" s="2" customFormat="1"/>
-    <row r="40" s="2" customFormat="1"/>
-    <row r="41" s="2" customFormat="1"/>
-    <row r="42" s="2" customFormat="1"/>
-    <row r="43" s="2" customFormat="1"/>
-    <row r="44" s="2" customFormat="1"/>
-    <row r="45" s="2" customFormat="1"/>
-    <row r="46" s="2" customFormat="1"/>
-    <row r="47" s="2" customFormat="1"/>
-    <row r="48" s="2" customFormat="1"/>
-    <row r="49" s="2" customFormat="1"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A20"/>
+  <mergeCells count="5">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
